--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_3_burndown_chart_Sprint_5_dias.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_3_burndown_chart_Sprint_5_dias.xlsx
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -103,6 +103,10 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -204,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -227,8 +231,8 @@
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -237,12 +241,12 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -349,11 +353,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1419826480"/>
-        <c:axId val="1218489236"/>
+        <c:axId val="1529436472"/>
+        <c:axId val="1030038016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419826480"/>
+        <c:axId val="1529436472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,10 +409,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218489236"/>
+        <c:crossAx val="1030038016"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1218489236"/>
+        <c:axId val="1030038016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419826480"/>
+        <c:crossAx val="1529436472"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -842,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="13">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -853,8 +857,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="16">
-        <f t="shared" ref="I5:I15" si="1">SUM(C5:H5)</f>
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -869,17 +872,18 @@
       <c r="B6" s="12">
         <v>6.0</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17">
+        <v>2.0</v>
+      </c>
       <c r="D6" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I6" s="16">
+        <v>6.0</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -895,16 +899,15 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17">
+        <v>4.0</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I7" s="16">
+        <v>4.0</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -921,15 +924,14 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>4.0</v>
+      </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I8" s="16">
+        <v>4.0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -946,15 +948,14 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="17">
-        <v>4.0</v>
-      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="17">
+        <v>4.0</v>
+      </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I9" s="16">
+        <v>4.0</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -969,17 +970,18 @@
       <c r="B10" s="12">
         <v>6.0</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17">
-        <v>6.0</v>
-      </c>
+      <c r="C10" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I10" s="16">
+        <v>6.0</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -992,19 +994,20 @@
         <v>12</v>
       </c>
       <c r="B11" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4.0</v>
+      </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="17">
-        <v>5.0</v>
-      </c>
+      <c r="F11" s="17"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I11" s="16">
+        <v>6.0</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1019,17 +1022,16 @@
       <c r="B12" s="12">
         <v>4.0</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
+        <v>4.0</v>
+      </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="17">
-        <v>4.0</v>
-      </c>
+      <c r="F12" s="17"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I12" s="16">
+        <v>4.0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1046,15 +1048,14 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="17">
+        <v>4.0</v>
+      </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="17">
-        <v>4.0</v>
-      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I13" s="16">
+        <v>4.0</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1067,19 +1068,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="17">
+        <v>4.0</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="17">
-        <v>3.0</v>
-      </c>
+      <c r="G14" s="17"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I14" s="16">
+        <v>4.0</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1092,19 +1092,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="17">
+        <v>4.0</v>
+      </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="17">
-        <v>3.0</v>
-      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="19">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I15" s="16">
+        <v>4.0</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1116,31 +1115,31 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3">
         <f>SUM(B5:B15)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3">
         <f>B16</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:H16" si="2">C16-SUM(C5:C15)</f>
-        <v>43</v>
+        <f t="shared" ref="D16:H16" si="1">C16-SUM(C5:C15)</f>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1150,32 +1149,32 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ref="B17:G17" si="3">C16</f>
-        <v>46</v>
+        <f t="shared" ref="B17:G17" si="2">C16</f>
+        <v>50</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1189,30 +1188,30 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3">
         <f>SUM(B5:B15)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(B5:B15)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:H18" si="4">C18-(SUM($B$5:$B$15)/5)</f>
-        <v>36.8</v>
+        <f t="shared" ref="D18:H18" si="3">C18-(SUM($B$5:$B$15)/5)</f>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="4"/>
-        <v>27.6</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="4"/>
-        <v>18.4</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
@@ -1223,31 +1222,31 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <f>B18</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:G19" si="5">D18</f>
-        <v>36.8</v>
+        <f t="shared" ref="C19:G19" si="4">D18</f>
+        <v>40</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="5"/>
-        <v>27.6</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="5"/>
-        <v>18.4</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="5"/>
-        <v>9.2</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="2"/>
@@ -1260,7 +1259,7 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1276,12 +1275,12 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1292,12 +1291,12 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1308,12 +1307,12 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1324,12 +1323,12 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1340,27 +1339,27 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1370,7 +1369,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1380,7 +1379,7 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
